--- a/DEC/0_DEC_template.xlsx
+++ b/DEC/0_DEC_template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZ\alaniszeo_git\EC-generic-model\Database_for_model_validation\DEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZ\alaniszeo_git\OSD-ECMTest\DEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4507BE17-8E64-433A-B034-E112595D3DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFD3BF9-5209-403B-8D2D-C16E38660300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{1306219A-737B-4B5D-BCFD-98C34D3C77CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Nomenclature" sheetId="4" r:id="rId1"/>
-    <sheet name="Template" sheetId="25" r:id="rId2"/>
+    <sheet name="Characteristics" sheetId="25" r:id="rId2"/>
+    <sheet name="Data" sheetId="26" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -767,29 +768,29 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1621,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88027F8-0711-4E60-BD82-FF3088D1682B}">
-  <dimension ref="B1:U56"/>
+  <dimension ref="B1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,69 +1669,69 @@
       <c r="B3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="66"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
@@ -1779,8 +1780,8 @@
         <v>32</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
@@ -1891,626 +1892,63 @@
       </c>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="2"/>
-      <c r="C28" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="18"/>
-    </row>
-    <row r="29" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="O29" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>6</v>
-      </c>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="46"/>
       <c r="T30" s="40"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="5">
-        <v>2</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="21"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="46"/>
       <c r="T31" s="40"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
-        <v>3</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="21"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="46"/>
       <c r="T32" s="40"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="5">
-        <v>4</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="21"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="46"/>
+    <row r="33" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T33" s="40"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B34" s="5">
-        <v>5</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="21"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="46"/>
+    <row r="34" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T34" s="40"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
-        <v>6</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="21"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="46"/>
+    <row r="35" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T35" s="40"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B36" s="5">
-        <v>7</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="21"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="46"/>
+    <row r="36" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T36" s="40"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B37" s="5">
-        <v>8</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="21"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="46"/>
+    <row r="37" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T37" s="40"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
-        <v>9</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="21"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="46"/>
+    <row r="38" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T38" s="40"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B39" s="5">
-        <v>10</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="21"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="46"/>
+    <row r="39" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T39" s="40"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B40" s="5">
-        <v>11</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="21"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="46"/>
+    <row r="40" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T40" s="40"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B41" s="5">
-        <v>12</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="21"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="46"/>
+    <row r="41" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T41" s="40"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B42" s="5">
-        <v>13</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="21"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="46"/>
+    <row r="42" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T42" s="40"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B43" s="5">
-        <v>14</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="21"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="46"/>
+    <row r="43" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T43" s="40"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B44" s="5">
-        <f>B43+1</f>
-        <v>15</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="21"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="46"/>
+    <row r="44" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T44" s="40"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B45" s="5">
-        <f t="shared" ref="B45:B56" si="0">B44+1</f>
-        <v>16</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="21"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="46"/>
+    <row r="45" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T45" s="40"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B46" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="21"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="46"/>
+    <row r="46" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T46" s="40"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B47" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="21"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="46"/>
+    <row r="47" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T47" s="40"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B48" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="21"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="5"/>
-      <c r="R48" s="46"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="21"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="5"/>
-      <c r="R49" s="46"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="21"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="5"/>
-      <c r="R50" s="46"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="21"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="5"/>
-      <c r="R51" s="46"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="21"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="5"/>
-      <c r="R52" s="46"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B53" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="21"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="5"/>
-      <c r="R53" s="46"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="21"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="5"/>
-      <c r="R54" s="46"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="21"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="5"/>
-      <c r="R55" s="46"/>
-    </row>
-    <row r="56" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="7">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2519,6 +1957,624 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F2BB49-50FA-40D1-9641-CC2315934F70}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="18"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="46"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="21"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="46"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="21"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="46"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="21"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="46"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="21"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="46"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="21"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="46"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="46"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="46"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="46"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="46"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="46"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="21"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="46"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="46"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="46"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f>A16+1</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="46"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f>A17+1</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="46"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f>A18+1</f>
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="46"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f>A19+1</f>
+        <v>18</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="46"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <f>A20+1</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="5"/>
+      <c r="Q21" s="46"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <f>A21+1</f>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="21"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="5"/>
+      <c r="Q22" s="46"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <f>A22+1</f>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="21"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="5"/>
+      <c r="Q23" s="46"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <f>A23+1</f>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="5"/>
+      <c r="Q24" s="46"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <f>A24+1</f>
+        <v>23</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="5"/>
+      <c r="Q25" s="46"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <f>A25+1</f>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="5"/>
+      <c r="Q26" s="46"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <f>A26+1</f>
+        <v>25</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="5"/>
+      <c r="Q27" s="46"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <f>A27+1</f>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="5"/>
+      <c r="Q28" s="46"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <f>A28+1</f>
+        <v>27</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2532,12 +2588,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D0A631236513B9418E5AF68A800ACA79" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="ad3ecf216e08acb36b19aa337e871f12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fbd837e5-054a-49eb-b52b-3e79ba6bda81" xmlns:ns3="16cc8f85-dc4c-4d27-a03f-db68d60dd571" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7cb4eca1a466029dd2fc18150b16dd5" ns2:_="" ns3:_="">
     <xsd:import namespace="fbd837e5-054a-49eb-b52b-3e79ba6bda81"/>
@@ -2714,6 +2764,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2E9B0F2-0F1F-4FE4-8066-C13DC92A4B39}">
   <ds:schemaRefs>
@@ -2723,23 +2779,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF5B01B-DE67-44CC-B4C3-E4CCF84B6011}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="16cc8f85-dc4c-4d27-a03f-db68d60dd571"/>
-    <ds:schemaRef ds:uri="fbd837e5-054a-49eb-b52b-3e79ba6bda81"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C912D4EC-DADE-4A96-BF02-5A15107DDA7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2756,4 +2795,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF5B01B-DE67-44CC-B4C3-E4CCF84B6011}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="16cc8f85-dc4c-4d27-a03f-db68d60dd571"/>
+    <ds:schemaRef ds:uri="fbd837e5-054a-49eb-b52b-3e79ba6bda81"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>